--- a/external/uploads/Demo753employee_export.xlsx
+++ b/external/uploads/Demo753employee_export.xlsx
@@ -209,6 +209,12 @@
     <t>30-11-1970</t>
   </si>
   <si>
+    <t>Deletion</t>
+  </si>
+  <si>
+    <t>Hr Approval Pending</t>
+  </si>
+  <si>
     <t>Female</t>
   </si>
   <si>
@@ -224,9 +230,6 @@
     <t>01-03-1998</t>
   </si>
   <si>
-    <t>Deletion</t>
-  </si>
-  <si>
     <t>Kid1</t>
   </si>
   <si>
@@ -462,9 +465,6 @@
   </si>
   <si>
     <t>25-09-2022</t>
-  </si>
-  <si>
-    <t>Hr Approval Pending</t>
   </si>
   <si>
     <t>Anil Suresh Gangwani</t>
@@ -1630,37 +1630,57 @@
       <c r="S3" t="s">
         <v>48</v>
       </c>
-      <c r="T3"/>
+      <c r="T3" t="s">
+        <v>64</v>
+      </c>
       <c r="U3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V3" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="W3"/>
       <c r="X3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Y3" t="s">
         <v>56</v>
       </c>
-      <c r="AA3"/>
+      <c r="AA3" t="s">
+        <v>61</v>
+      </c>
       <c r="AB3"/>
       <c r="AC3"/>
-      <c r="AD3"/>
+      <c r="AD3" t="s">
+        <v>62</v>
+      </c>
       <c r="AE3"/>
-      <c r="AF3"/>
-      <c r="AG3"/>
+      <c r="AF3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG3">
+        <v>51</v>
+      </c>
       <c r="AH3"/>
       <c r="AI3"/>
-      <c r="AJ3"/>
+      <c r="AJ3" t="s">
+        <v>51</v>
+      </c>
       <c r="AK3"/>
-      <c r="AL3"/>
+      <c r="AL3" t="s">
+        <v>57</v>
+      </c>
       <c r="AM3"/>
-      <c r="AN3"/>
-      <c r="AO3"/>
+      <c r="AN3">
+        <v>1</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>53</v>
+      </c>
       <c r="AP3"/>
-      <c r="AQ3"/>
+      <c r="AQ3" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="4" spans="1:43">
       <c r="A4">
@@ -1676,24 +1696,24 @@
         <v>44</v>
       </c>
       <c r="E4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F4">
         <v>46</v>
       </c>
       <c r="G4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H4"/>
       <c r="I4"/>
       <c r="J4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="M4">
         <v>24</v>
@@ -1711,7 +1731,7 @@
         <v>48</v>
       </c>
       <c r="T4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="U4">
         <v>1</v>
@@ -1721,22 +1741,22 @@
       </c>
       <c r="W4"/>
       <c r="X4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Y4" t="s">
         <v>56</v>
       </c>
       <c r="AA4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AB4"/>
       <c r="AC4"/>
       <c r="AD4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE4"/>
       <c r="AF4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AG4">
         <v>24</v>
@@ -1759,7 +1779,7 @@
       </c>
       <c r="AP4"/>
       <c r="AQ4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:43">
@@ -1782,7 +1802,7 @@
         <v>69</v>
       </c>
       <c r="G5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H5"/>
       <c r="I5"/>
@@ -1800,7 +1820,7 @@
         <v>200000</v>
       </c>
       <c r="O5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P5" t="s">
         <v>50</v>
@@ -1860,13 +1880,13 @@
         <v>44</v>
       </c>
       <c r="E6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F6">
         <v>69</v>
       </c>
       <c r="G6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H6"/>
       <c r="I6"/>
@@ -1875,7 +1895,7 @@
       </c>
       <c r="K6"/>
       <c r="L6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M6">
         <v>45</v>
@@ -1893,7 +1913,7 @@
         <v>48</v>
       </c>
       <c r="T6" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="U6">
         <v>1</v>
@@ -1903,7 +1923,7 @@
       </c>
       <c r="W6"/>
       <c r="X6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Y6" t="s">
         <v>56</v>
@@ -1940,24 +1960,24 @@
         <v>44</v>
       </c>
       <c r="E7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F7">
         <v>69</v>
       </c>
       <c r="G7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H7"/>
       <c r="I7"/>
       <c r="J7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M7">
         <v>23</v>
@@ -1975,7 +1995,7 @@
         <v>48</v>
       </c>
       <c r="T7" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="U7">
         <v>1</v>
@@ -1985,7 +2005,7 @@
       </c>
       <c r="W7"/>
       <c r="X7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Y7" t="s">
         <v>56</v>
@@ -2022,24 +2042,24 @@
         <v>44</v>
       </c>
       <c r="E8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F8">
         <v>69</v>
       </c>
       <c r="G8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H8"/>
       <c r="I8"/>
       <c r="J8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M8">
         <v>18</v>
@@ -2057,7 +2077,7 @@
         <v>48</v>
       </c>
       <c r="T8" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="U8">
         <v>1</v>
@@ -2110,7 +2130,7 @@
         <v>77</v>
       </c>
       <c r="G9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H9"/>
       <c r="I9"/>
@@ -2128,7 +2148,7 @@
         <v>200000</v>
       </c>
       <c r="O9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P9"/>
       <c r="Q9" t="s">
@@ -2186,16 +2206,16 @@
         <v>44</v>
       </c>
       <c r="E10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F10">
         <v>77</v>
       </c>
       <c r="G10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I10">
         <v>99999999</v>
@@ -2205,7 +2225,7 @@
       </c>
       <c r="K10"/>
       <c r="L10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M10">
         <v>33</v>
@@ -2221,23 +2241,23 @@
         <v>48</v>
       </c>
       <c r="T10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="U10">
         <v>2</v>
       </c>
       <c r="V10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="W10"/>
       <c r="X10" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Y10" t="s">
         <v>56</v>
       </c>
       <c r="AA10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AB10"/>
       <c r="AC10"/>
@@ -2246,7 +2266,7 @@
       </c>
       <c r="AE10"/>
       <c r="AF10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AG10">
         <v>33</v>
@@ -2269,7 +2289,7 @@
       </c>
       <c r="AP10"/>
       <c r="AQ10" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:43">
@@ -2286,24 +2306,24 @@
         <v>44</v>
       </c>
       <c r="E11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F11">
         <v>77</v>
       </c>
       <c r="G11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H11"/>
       <c r="I11"/>
       <c r="J11" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M11">
         <v>9</v>
@@ -2327,7 +2347,7 @@
       </c>
       <c r="W11"/>
       <c r="X11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Y11" t="s">
         <v>56</v>
@@ -2364,24 +2384,24 @@
         <v>44</v>
       </c>
       <c r="E12" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F12">
         <v>77</v>
       </c>
       <c r="G12" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H12"/>
       <c r="I12"/>
       <c r="J12" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M12">
         <v>3</v>
@@ -2405,7 +2425,7 @@
       </c>
       <c r="W12"/>
       <c r="X12" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Y12" t="s">
         <v>56</v>
@@ -2448,7 +2468,7 @@
         <v>86</v>
       </c>
       <c r="G13" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H13"/>
       <c r="I13"/>
@@ -2466,7 +2486,7 @@
         <v>200000</v>
       </c>
       <c r="O13" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="P13"/>
       <c r="Q13" t="s">
@@ -2524,13 +2544,13 @@
         <v>44</v>
       </c>
       <c r="E14" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F14">
         <v>86</v>
       </c>
       <c r="G14" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H14"/>
       <c r="I14"/>
@@ -2539,7 +2559,7 @@
       </c>
       <c r="K14"/>
       <c r="L14" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M14">
         <v>28</v>
@@ -2563,7 +2583,7 @@
       </c>
       <c r="W14"/>
       <c r="X14" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Y14" t="s">
         <v>56</v>
@@ -2600,18 +2620,18 @@
         <v>44</v>
       </c>
       <c r="E15" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F15">
         <v>86</v>
       </c>
       <c r="G15" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H15"/>
       <c r="I15"/>
       <c r="J15" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -2641,7 +2661,7 @@
       </c>
       <c r="W15"/>
       <c r="X15" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Y15" t="s">
         <v>56</v>
@@ -2684,7 +2704,7 @@
         <v>122</v>
       </c>
       <c r="G16" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H16" t="s">
         <v>46</v>
@@ -2704,7 +2724,7 @@
         <v>200000</v>
       </c>
       <c r="O16" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P16"/>
       <c r="Q16" t="s">
@@ -2731,7 +2751,7 @@
         <v>56</v>
       </c>
       <c r="AA16" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AB16"/>
       <c r="AC16"/>
@@ -2740,13 +2760,13 @@
       </c>
       <c r="AE16"/>
       <c r="AF16" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AG16">
         <v>35</v>
       </c>
       <c r="AH16" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AI16"/>
       <c r="AJ16" t="s">
@@ -2784,13 +2804,13 @@
         <v>44</v>
       </c>
       <c r="E17" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F17">
         <v>122</v>
       </c>
       <c r="G17" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H17"/>
       <c r="I17"/>
@@ -2799,7 +2819,7 @@
       </c>
       <c r="K17"/>
       <c r="L17" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M17">
         <v>35</v>
@@ -2823,7 +2843,7 @@
       </c>
       <c r="W17"/>
       <c r="X17" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Y17" t="s">
         <v>56</v>
@@ -2866,7 +2886,7 @@
         <v>148</v>
       </c>
       <c r="G18" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H18"/>
       <c r="I18"/>
@@ -2884,7 +2904,7 @@
         <v>200000</v>
       </c>
       <c r="O18" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P18"/>
       <c r="Q18" t="s">
@@ -2905,7 +2925,7 @@
       </c>
       <c r="W18"/>
       <c r="X18" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Y18" t="s">
         <v>56</v>
@@ -2942,13 +2962,13 @@
         <v>44</v>
       </c>
       <c r="E19" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F19">
         <v>148</v>
       </c>
       <c r="G19" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H19"/>
       <c r="I19"/>
@@ -2957,7 +2977,7 @@
       </c>
       <c r="K19"/>
       <c r="L19" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M19">
         <v>44</v>
@@ -3018,24 +3038,24 @@
         <v>44</v>
       </c>
       <c r="E20" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F20">
         <v>148</v>
       </c>
       <c r="G20" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H20"/>
       <c r="I20"/>
       <c r="J20" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M20">
         <v>16</v>
@@ -3102,7 +3122,7 @@
         <v>189</v>
       </c>
       <c r="G21" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H21"/>
       <c r="I21"/>
@@ -3120,7 +3140,7 @@
         <v>200000</v>
       </c>
       <c r="O21" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P21"/>
       <c r="Q21" t="s">
@@ -3178,13 +3198,13 @@
         <v>44</v>
       </c>
       <c r="E22" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F22">
         <v>189</v>
       </c>
       <c r="G22" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H22"/>
       <c r="I22"/>
@@ -3193,7 +3213,7 @@
       </c>
       <c r="K22"/>
       <c r="L22" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M22">
         <v>32</v>
@@ -3217,7 +3237,7 @@
       </c>
       <c r="W22"/>
       <c r="X22" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Y22" t="s">
         <v>56</v>
@@ -3254,24 +3274,24 @@
         <v>44</v>
       </c>
       <c r="E23" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F23">
         <v>189</v>
       </c>
       <c r="G23" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H23"/>
       <c r="I23"/>
       <c r="J23" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M23">
         <v>7</v>
@@ -3295,7 +3315,7 @@
       </c>
       <c r="W23"/>
       <c r="X23" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Y23" t="s">
         <v>56</v>
@@ -3332,24 +3352,24 @@
         <v>44</v>
       </c>
       <c r="E24" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F24">
         <v>189</v>
       </c>
       <c r="G24" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H24"/>
       <c r="I24"/>
       <c r="J24" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K24">
         <v>1</v>
       </c>
       <c r="L24" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M24">
         <v>6</v>
@@ -3373,7 +3393,7 @@
       </c>
       <c r="W24"/>
       <c r="X24" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Y24" t="s">
         <v>56</v>
@@ -3414,7 +3434,7 @@
         <v>189</v>
       </c>
       <c r="G25" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H25" t="s">
         <v>46</v>
@@ -3423,11 +3443,11 @@
         <v>9717070938</v>
       </c>
       <c r="J25" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K25"/>
       <c r="L25" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M25">
         <v>53</v>
@@ -3441,17 +3461,17 @@
       <c r="R25"/>
       <c r="S25"/>
       <c r="T25" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="U25">
         <v>2</v>
       </c>
       <c r="V25" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="W25"/>
       <c r="X25" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Y25" t="s">
         <v>56</v>
@@ -3492,7 +3512,7 @@
         <v>189</v>
       </c>
       <c r="G26" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H26" t="s">
         <v>46</v>
@@ -3501,11 +3521,11 @@
         <v>9891562421</v>
       </c>
       <c r="J26" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K26"/>
       <c r="L26" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M26">
         <v>60</v>
@@ -3519,13 +3539,13 @@
       <c r="R26"/>
       <c r="S26"/>
       <c r="T26" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="U26">
         <v>2</v>
       </c>
       <c r="V26" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="W26"/>
       <c r="X26" t="s">
@@ -3572,7 +3592,7 @@
         <v>190</v>
       </c>
       <c r="G27" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H27"/>
       <c r="I27"/>
@@ -3590,7 +3610,7 @@
         <v>200000</v>
       </c>
       <c r="O27" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P27" t="s">
         <v>50</v>
@@ -3613,7 +3633,7 @@
       </c>
       <c r="W27"/>
       <c r="X27" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Y27" t="s">
         <v>56</v>
@@ -3650,13 +3670,13 @@
         <v>44</v>
       </c>
       <c r="E28" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F28">
         <v>190</v>
       </c>
       <c r="G28" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H28"/>
       <c r="I28"/>
@@ -3665,7 +3685,7 @@
       </c>
       <c r="K28"/>
       <c r="L28" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M28">
         <v>58</v>
@@ -3683,7 +3703,7 @@
         <v>48</v>
       </c>
       <c r="T28" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="U28">
         <v>1</v>
@@ -3699,7 +3719,7 @@
         <v>56</v>
       </c>
       <c r="AA28" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AB28"/>
       <c r="AC28"/>
@@ -3708,7 +3728,7 @@
       </c>
       <c r="AE28"/>
       <c r="AF28" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AG28">
         <v>58</v>
@@ -3748,24 +3768,24 @@
         <v>44</v>
       </c>
       <c r="E29" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F29">
         <v>190</v>
       </c>
       <c r="G29" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H29"/>
       <c r="I29"/>
       <c r="J29" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K29">
         <v>0</v>
       </c>
       <c r="L29" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M29">
         <v>25</v>
@@ -3783,7 +3803,7 @@
         <v>48</v>
       </c>
       <c r="T29" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="U29">
         <v>1</v>
@@ -3793,7 +3813,7 @@
       </c>
       <c r="W29"/>
       <c r="X29" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Y29" t="s">
         <v>56</v>
@@ -3836,7 +3856,7 @@
         <v>228</v>
       </c>
       <c r="G30" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H30"/>
       <c r="I30"/>
@@ -3854,7 +3874,7 @@
         <v>200000</v>
       </c>
       <c r="O30" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="P30"/>
       <c r="Q30" t="s">
@@ -3875,7 +3895,7 @@
       </c>
       <c r="W30"/>
       <c r="X30" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Y30" t="s">
         <v>56</v>
@@ -3916,7 +3936,7 @@
         <v>228</v>
       </c>
       <c r="G31" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H31" t="s">
         <v>46</v>
@@ -3929,7 +3949,7 @@
       </c>
       <c r="K31"/>
       <c r="L31" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M31">
         <v>28</v>
@@ -3942,20 +3962,20 @@
       </c>
       <c r="R31"/>
       <c r="S31" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="T31" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="U31">
         <v>3</v>
       </c>
       <c r="V31" t="s">
-        <v>149</v>
+        <v>65</v>
       </c>
       <c r="W31"/>
       <c r="X31" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Y31" t="s">
         <v>56</v>
@@ -4133,7 +4153,7 @@
         <v>48</v>
       </c>
       <c r="T33" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="U33">
         <v>1</v>
@@ -4143,7 +4163,7 @@
       </c>
       <c r="W33"/>
       <c r="X33" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Y33" t="s">
         <v>56</v>
@@ -4181,7 +4201,7 @@
       </c>
       <c r="AP33"/>
       <c r="AQ33" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:43">
@@ -4209,7 +4229,7 @@
       <c r="H34"/>
       <c r="I34"/>
       <c r="J34" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -4233,7 +4253,7 @@
         <v>48</v>
       </c>
       <c r="T34" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="U34">
         <v>1</v>
@@ -4254,7 +4274,7 @@
       <c r="AB34"/>
       <c r="AC34"/>
       <c r="AD34" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AE34"/>
       <c r="AF34" t="s">
@@ -4307,7 +4327,7 @@
       <c r="H35"/>
       <c r="I35"/>
       <c r="J35" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K35">
         <v>1</v>
@@ -4329,7 +4349,7 @@
       <c r="R35"/>
       <c r="S35"/>
       <c r="T35" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="U35">
         <v>1</v>
@@ -4389,7 +4409,7 @@
         <v>9891562421</v>
       </c>
       <c r="J36" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K36"/>
       <c r="L36" t="s">
@@ -4409,7 +4429,7 @@
       <c r="R36"/>
       <c r="S36"/>
       <c r="T36" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="U36">
         <v>1</v>
@@ -4419,7 +4439,7 @@
       </c>
       <c r="W36"/>
       <c r="X36" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Y36" t="s">
         <v>56</v>
@@ -4553,7 +4573,7 @@
       </c>
       <c r="K38"/>
       <c r="L38" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M38">
         <v>35</v>
@@ -4577,7 +4597,7 @@
       </c>
       <c r="W38"/>
       <c r="X38" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Y38" t="s">
         <v>56</v>
@@ -4625,7 +4645,7 @@
       <c r="H39"/>
       <c r="I39"/>
       <c r="J39" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -4703,7 +4723,7 @@
       <c r="H40"/>
       <c r="I40"/>
       <c r="J40" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K40">
         <v>1</v>
@@ -4733,7 +4753,7 @@
       </c>
       <c r="W40"/>
       <c r="X40" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Y40" t="s">
         <v>56</v>
@@ -4815,7 +4835,7 @@
       </c>
       <c r="W41"/>
       <c r="X41" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Y41" t="s">
         <v>56</v>
@@ -4939,7 +4959,7 @@
       <c r="H43"/>
       <c r="I43"/>
       <c r="J43" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K43">
         <v>0</v>
@@ -5017,7 +5037,7 @@
       <c r="H44"/>
       <c r="I44"/>
       <c r="J44" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K44">
         <v>1</v>
@@ -5205,7 +5225,7 @@
       </c>
       <c r="W46"/>
       <c r="X46" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Y46" t="s">
         <v>56</v>
@@ -5363,7 +5383,7 @@
       </c>
       <c r="W48"/>
       <c r="X48" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Y48" t="s">
         <v>56</v>
@@ -5411,7 +5431,7 @@
       <c r="H49"/>
       <c r="I49"/>
       <c r="J49" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K49">
         <v>0</v>
@@ -5441,7 +5461,7 @@
       </c>
       <c r="W49"/>
       <c r="X49" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Y49" t="s">
         <v>56</v>
@@ -5489,7 +5509,7 @@
       <c r="H50"/>
       <c r="I50"/>
       <c r="J50" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K50">
         <v>1</v>
@@ -5519,7 +5539,7 @@
       </c>
       <c r="W50"/>
       <c r="X50" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Y50" t="s">
         <v>56</v>
@@ -5601,7 +5621,7 @@
       </c>
       <c r="W51"/>
       <c r="X51" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Y51" t="s">
         <v>56</v>
@@ -5725,7 +5745,7 @@
       <c r="H53"/>
       <c r="I53"/>
       <c r="J53" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K53">
         <v>0</v>
@@ -5755,7 +5775,7 @@
       </c>
       <c r="W53"/>
       <c r="X53" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Y53" t="s">
         <v>56</v>
@@ -5913,7 +5933,7 @@
       </c>
       <c r="W55"/>
       <c r="X55" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Y55" t="s">
         <v>56</v>
@@ -5995,7 +6015,7 @@
       </c>
       <c r="W56"/>
       <c r="X56" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Y56" t="s">
         <v>56</v>
@@ -6229,7 +6249,7 @@
       </c>
       <c r="W59"/>
       <c r="X59" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Y59" t="s">
         <v>56</v>
@@ -6469,7 +6489,7 @@
       </c>
       <c r="W62"/>
       <c r="X62" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Y62" t="s">
         <v>56</v>
@@ -6517,7 +6537,7 @@
       <c r="H63"/>
       <c r="I63"/>
       <c r="J63" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K63">
         <v>0</v>
@@ -6787,7 +6807,7 @@
       </c>
       <c r="W66"/>
       <c r="X66" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Y66" t="s">
         <v>56</v>
@@ -6835,7 +6855,7 @@
       <c r="H67"/>
       <c r="I67"/>
       <c r="J67" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K67">
         <v>0</v>
@@ -6865,7 +6885,7 @@
       </c>
       <c r="W67"/>
       <c r="X67" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Y67" t="s">
         <v>56</v>
@@ -6913,7 +6933,7 @@
       <c r="H68"/>
       <c r="I68"/>
       <c r="J68" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K68">
         <v>1</v>
@@ -7107,7 +7127,7 @@
       </c>
       <c r="W70"/>
       <c r="X70" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Y70" t="s">
         <v>56</v>
@@ -7189,7 +7209,7 @@
       </c>
       <c r="W71"/>
       <c r="X71" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Y71" t="s">
         <v>56</v>
@@ -7423,7 +7443,7 @@
       </c>
       <c r="W74"/>
       <c r="X74" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Y74" t="s">
         <v>56</v>
@@ -7471,7 +7491,7 @@
       <c r="H75"/>
       <c r="I75"/>
       <c r="J75" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K75">
         <v>0</v>
@@ -7631,7 +7651,7 @@
       <c r="H77"/>
       <c r="I77"/>
       <c r="J77" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K77"/>
       <c r="L77" t="s">
@@ -7741,7 +7761,7 @@
       </c>
       <c r="W78"/>
       <c r="X78" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Y78" t="s">
         <v>56</v>
@@ -7871,7 +7891,7 @@
       <c r="H80"/>
       <c r="I80"/>
       <c r="J80" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K80"/>
       <c r="L80" t="s">
@@ -8029,7 +8049,7 @@
       <c r="H82"/>
       <c r="I82"/>
       <c r="J82" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K82"/>
       <c r="L82" t="s">
@@ -8187,7 +8207,7 @@
       <c r="H84"/>
       <c r="I84"/>
       <c r="J84" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K84"/>
       <c r="L84" t="s">
@@ -8373,7 +8393,7 @@
       </c>
       <c r="W86"/>
       <c r="X86" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Y86" t="s">
         <v>56</v>
@@ -8421,7 +8441,7 @@
       <c r="H87"/>
       <c r="I87"/>
       <c r="J87" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K87">
         <v>0</v>
@@ -8499,7 +8519,7 @@
       <c r="H88"/>
       <c r="I88"/>
       <c r="J88" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K88"/>
       <c r="L88" t="s">
@@ -8685,7 +8705,7 @@
       </c>
       <c r="W90"/>
       <c r="X90" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Y90" t="s">
         <v>56</v>
@@ -8751,7 +8771,7 @@
         <v>2</v>
       </c>
       <c r="V91" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="W91"/>
       <c r="X91"/>
@@ -8817,13 +8837,13 @@
       <c r="R92"/>
       <c r="S92"/>
       <c r="T92" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="U92">
         <v>2</v>
       </c>
       <c r="V92" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="W92"/>
       <c r="X92"/>
@@ -8891,7 +8911,7 @@
         <v>2</v>
       </c>
       <c r="V93" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="W93"/>
       <c r="X93"/>
@@ -8957,13 +8977,13 @@
       <c r="R94"/>
       <c r="S94"/>
       <c r="T94" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="U94">
         <v>2</v>
       </c>
       <c r="V94" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="W94"/>
       <c r="X94"/>
@@ -9029,13 +9049,13 @@
       <c r="R95"/>
       <c r="S95"/>
       <c r="T95" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="U95">
         <v>2</v>
       </c>
       <c r="V95" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="W95"/>
       <c r="X95"/>
@@ -9107,17 +9127,17 @@
       <c r="R96"/>
       <c r="S96"/>
       <c r="T96" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="U96">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V96" t="s">
-        <v>149</v>
+        <v>90</v>
       </c>
       <c r="W96"/>
       <c r="X96" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Y96" t="s">
         <v>56</v>
